--- a/Code/Results/Cases/Case_0_234/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_234/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.023217752791755</v>
+        <v>1.074594173660594</v>
       </c>
       <c r="D2">
-        <v>1.037600938365287</v>
+        <v>1.083821771554869</v>
       </c>
       <c r="E2">
-        <v>1.024002651447569</v>
+        <v>1.068266598740452</v>
       </c>
       <c r="F2">
-        <v>1.04317197268241</v>
+        <v>1.090032741912005</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05866426153274</v>
+        <v>1.052528360026868</v>
       </c>
       <c r="J2">
-        <v>1.044725527593452</v>
+        <v>1.079502870546629</v>
       </c>
       <c r="K2">
-        <v>1.048560154767984</v>
+        <v>1.086486391214367</v>
       </c>
       <c r="L2">
-        <v>1.035137420156259</v>
+        <v>1.070972240506091</v>
       </c>
       <c r="M2">
-        <v>1.054060915923801</v>
+        <v>1.092681334920577</v>
       </c>
       <c r="N2">
-        <v>1.046209157674328</v>
+        <v>1.081035888443515</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.033090681885397</v>
+        <v>1.0764186059026</v>
       </c>
       <c r="D3">
-        <v>1.046908015693581</v>
+        <v>1.085585021524453</v>
       </c>
       <c r="E3">
-        <v>1.032589105789147</v>
+        <v>1.069870332669996</v>
       </c>
       <c r="F3">
-        <v>1.052642479113319</v>
+        <v>1.091836470220521</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.062263917444315</v>
+        <v>1.053050449901971</v>
       </c>
       <c r="J3">
-        <v>1.052718181949746</v>
+        <v>1.080982358630088</v>
       </c>
       <c r="K3">
-        <v>1.056973919241498</v>
+        <v>1.088066257018206</v>
       </c>
       <c r="L3">
-        <v>1.042821315319177</v>
+        <v>1.072389962631716</v>
       </c>
       <c r="M3">
-        <v>1.062643343753739</v>
+        <v>1.0943027620822</v>
       </c>
       <c r="N3">
-        <v>1.054213162516578</v>
+        <v>1.082517477569752</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.039232186651134</v>
+        <v>1.077595459414612</v>
       </c>
       <c r="D4">
-        <v>1.052702650026237</v>
+        <v>1.08672261200628</v>
       </c>
       <c r="E4">
-        <v>1.037930745881574</v>
+        <v>1.070904352765943</v>
       </c>
       <c r="F4">
-        <v>1.058540713562644</v>
+        <v>1.09300037281643</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.064485257597074</v>
+        <v>1.05338507294997</v>
       </c>
       <c r="J4">
-        <v>1.057682918212736</v>
+        <v>1.081935700019168</v>
       </c>
       <c r="K4">
-        <v>1.062204037253915</v>
+        <v>1.089084727623327</v>
       </c>
       <c r="L4">
-        <v>1.047591958598877</v>
+        <v>1.073303138594765</v>
       </c>
       <c r="M4">
-        <v>1.067980439183126</v>
+        <v>1.095348250238596</v>
       </c>
       <c r="N4">
-        <v>1.059184949274524</v>
+        <v>1.083472172812955</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.041759277353057</v>
+        <v>1.078089347320117</v>
       </c>
       <c r="D5">
-        <v>1.055088145479834</v>
+        <v>1.087200070359879</v>
       </c>
       <c r="E5">
-        <v>1.0401287083081</v>
+        <v>1.071338184822814</v>
       </c>
       <c r="F5">
-        <v>1.060969293338006</v>
+        <v>1.093488921633529</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.065394941132293</v>
+        <v>1.053524987826899</v>
       </c>
       <c r="J5">
-        <v>1.059724016993674</v>
+        <v>1.082335546001151</v>
       </c>
       <c r="K5">
-        <v>1.064355147210254</v>
+        <v>1.089511997214589</v>
       </c>
       <c r="L5">
-        <v>1.049552707261841</v>
+        <v>1.073686051365006</v>
       </c>
       <c r="M5">
-        <v>1.070176050597597</v>
+        <v>1.095786907961657</v>
       </c>
       <c r="N5">
-        <v>1.061228946649849</v>
+        <v>1.083872586622095</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.042180490061153</v>
+        <v>1.078172223306673</v>
       </c>
       <c r="D6">
-        <v>1.055485821406598</v>
+        <v>1.087280192204829</v>
       </c>
       <c r="E6">
-        <v>1.040495059545859</v>
+        <v>1.071410976594119</v>
       </c>
       <c r="F6">
-        <v>1.061374177028407</v>
+        <v>1.093570907311991</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.065546308510318</v>
+        <v>1.053548435729754</v>
       </c>
       <c r="J6">
-        <v>1.060064118654116</v>
+        <v>1.082402627303049</v>
       </c>
       <c r="K6">
-        <v>1.064713632955414</v>
+        <v>1.089583685618147</v>
       </c>
       <c r="L6">
-        <v>1.049879387750921</v>
+        <v>1.073750286708385</v>
       </c>
       <c r="M6">
-        <v>1.070541981882992</v>
+        <v>1.095860510242871</v>
       </c>
       <c r="N6">
-        <v>1.061569531293659</v>
+        <v>1.083939763187136</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.039266163737487</v>
+        <v>1.077602062127818</v>
       </c>
       <c r="D7">
-        <v>1.052734718965803</v>
+        <v>1.08672899488782</v>
       </c>
       <c r="E7">
-        <v>1.037960297920459</v>
+        <v>1.070910153047109</v>
       </c>
       <c r="F7">
-        <v>1.058573359984198</v>
+        <v>1.093006903775726</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.06449750574403</v>
+        <v>1.053386945479504</v>
       </c>
       <c r="J7">
-        <v>1.05771036820461</v>
+        <v>1.081941046448107</v>
       </c>
       <c r="K7">
-        <v>1.062232963151649</v>
+        <v>1.089090440316909</v>
       </c>
       <c r="L7">
-        <v>1.047618330194155</v>
+        <v>1.07330825894873</v>
       </c>
       <c r="M7">
-        <v>1.068009961509669</v>
+        <v>1.095354114983074</v>
       </c>
       <c r="N7">
-        <v>1.059212438248536</v>
+        <v>1.083477526834435</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.026608252222746</v>
+        <v>1.075211521598723</v>
       </c>
       <c r="D8">
-        <v>1.040795967074942</v>
+        <v>1.084418374302491</v>
       </c>
       <c r="E8">
-        <v>1.026951210936036</v>
+        <v>1.068809364847135</v>
       </c>
       <c r="F8">
-        <v>1.046422707070244</v>
+        <v>1.090642999758643</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.059904180138705</v>
+        <v>1.052705470027116</v>
       </c>
       <c r="J8">
-        <v>1.047471786832987</v>
+        <v>1.080003705302913</v>
       </c>
       <c r="K8">
-        <v>1.05145029430792</v>
+        <v>1.087021112600376</v>
       </c>
       <c r="L8">
-        <v>1.037778078563754</v>
+        <v>1.071452242256818</v>
       </c>
       <c r="M8">
-        <v>1.057008531818494</v>
+        <v>1.093230076447098</v>
       </c>
       <c r="N8">
-        <v>1.048959316916983</v>
+        <v>1.0815374344426</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.002186507903259</v>
+        <v>1.070970081968769</v>
       </c>
       <c r="D9">
-        <v>1.017809460113601</v>
+        <v>1.080320324340813</v>
       </c>
       <c r="E9">
-        <v>1.005719302921686</v>
+        <v>1.065078401930835</v>
       </c>
       <c r="F9">
-        <v>1.023043987577651</v>
+        <v>1.086451969643309</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050897474912158</v>
+        <v>1.051479795089455</v>
       </c>
       <c r="J9">
-        <v>1.027662290504865</v>
+        <v>1.076558627918822</v>
       </c>
       <c r="K9">
-        <v>1.030620051529003</v>
+        <v>1.083344793120999</v>
       </c>
       <c r="L9">
-        <v>1.018720264975854</v>
+        <v>1.068148951442094</v>
       </c>
       <c r="M9">
-        <v>1.035773937255701</v>
+        <v>1.089458297690197</v>
       </c>
       <c r="N9">
-        <v>1.029121688831894</v>
+        <v>1.078087464653468</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.984103508963327</v>
+        <v>1.068121765801143</v>
       </c>
       <c r="D10">
-        <v>1.000830968372459</v>
+        <v>1.077569412177621</v>
       </c>
       <c r="E10">
-        <v>0.9900134201931776</v>
+        <v>1.062570476707119</v>
       </c>
       <c r="F10">
-        <v>1.005787455999692</v>
+        <v>1.083639674869307</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044134634559852</v>
+        <v>1.050645577641432</v>
       </c>
       <c r="J10">
-        <v>1.01296233965828</v>
+        <v>1.074239918608657</v>
       </c>
       <c r="K10">
-        <v>1.015185235619729</v>
+        <v>1.080872779237148</v>
       </c>
       <c r="L10">
-        <v>1.004565357224551</v>
+        <v>1.065923752983362</v>
       </c>
       <c r="M10">
-        <v>1.0200529965005</v>
+        <v>1.086923273397528</v>
       </c>
       <c r="N10">
-        <v>1.014400862368999</v>
+        <v>1.075765462510122</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9757370482766574</v>
+        <v>1.066883239387068</v>
       </c>
       <c r="D11">
-        <v>0.9929880097836246</v>
+        <v>1.076373512200584</v>
       </c>
       <c r="E11">
-        <v>0.9827530610478536</v>
+        <v>1.061479392702046</v>
       </c>
       <c r="F11">
-        <v>0.9978190606455376</v>
+        <v>1.082417336794687</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040984860305066</v>
+        <v>1.050280204451295</v>
       </c>
       <c r="J11">
-        <v>1.006155227453041</v>
+        <v>1.073230453794646</v>
       </c>
       <c r="K11">
-        <v>1.008043384649663</v>
+        <v>1.079797125944207</v>
       </c>
       <c r="L11">
-        <v>0.9980077272972362</v>
+        <v>1.064954540659411</v>
       </c>
       <c r="M11">
-        <v>1.012782223822512</v>
+        <v>1.085820483214738</v>
       </c>
       <c r="N11">
-        <v>1.007584083283642</v>
+        <v>1.074754564140288</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9725370603549813</v>
+        <v>1.06642239317299</v>
       </c>
       <c r="D12">
-        <v>0.9899903889707129</v>
+        <v>1.07592856864475</v>
       </c>
       <c r="E12">
-        <v>0.9799773583426606</v>
+        <v>1.061073323574622</v>
       </c>
       <c r="F12">
-        <v>0.9947739706108262</v>
+        <v>1.081962593955228</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03977717443985</v>
+        <v>1.050143856857571</v>
       </c>
       <c r="J12">
-        <v>1.003550957908204</v>
+        <v>1.07285465578814</v>
       </c>
       <c r="K12">
-        <v>1.005311903125207</v>
+        <v>1.079396770860588</v>
       </c>
       <c r="L12">
-        <v>0.9954984838835615</v>
+        <v>1.064593658565384</v>
       </c>
       <c r="M12">
-        <v>1.010001982689768</v>
+        <v>1.085410070206688</v>
       </c>
       <c r="N12">
-        <v>1.004976115377337</v>
+        <v>1.074378232457508</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9732278618891472</v>
+        <v>1.066521282932977</v>
       </c>
       <c r="D13">
-        <v>0.990637403111629</v>
+        <v>1.076024044066763</v>
       </c>
       <c r="E13">
-        <v>0.980576506417675</v>
+        <v>1.061160462947627</v>
       </c>
       <c r="F13">
-        <v>0.9954312088954687</v>
+        <v>1.082060170409294</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040038015939946</v>
+        <v>1.050173132595709</v>
       </c>
       <c r="J13">
-        <v>1.004113186042151</v>
+        <v>1.07293530396178</v>
       </c>
       <c r="K13">
-        <v>1.005901555949785</v>
+        <v>1.079482685344054</v>
       </c>
       <c r="L13">
-        <v>0.9960402157445367</v>
+        <v>1.064671108836102</v>
       </c>
       <c r="M13">
-        <v>1.010602136233214</v>
+        <v>1.085498141159633</v>
       </c>
       <c r="N13">
-        <v>1.005539141939723</v>
+        <v>1.074458995160806</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9754744962363118</v>
+        <v>1.06684516219791</v>
       </c>
       <c r="D14">
-        <v>0.9927420166167319</v>
+        <v>1.076336748106389</v>
       </c>
       <c r="E14">
-        <v>0.9825252941076412</v>
+        <v>1.061445843175429</v>
       </c>
       <c r="F14">
-        <v>0.9975691623106241</v>
+        <v>1.082379762261232</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040885831218888</v>
+        <v>1.050268946850311</v>
       </c>
       <c r="J14">
-        <v>1.005941565717923</v>
+        <v>1.073199407418028</v>
       </c>
       <c r="K14">
-        <v>1.007819268740022</v>
+        <v>1.079764049099805</v>
       </c>
       <c r="L14">
-        <v>0.9978018701688938</v>
+        <v>1.064924727963212</v>
       </c>
       <c r="M14">
-        <v>1.012554095986366</v>
+        <v>1.085786574532874</v>
       </c>
       <c r="N14">
-        <v>1.007370118124354</v>
+        <v>1.074723473674255</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9768460961835507</v>
+        <v>1.067044607885473</v>
       </c>
       <c r="D15">
-        <v>0.9940271994749358</v>
+        <v>1.076529317603614</v>
       </c>
       <c r="E15">
-        <v>0.9837152243729939</v>
+        <v>1.061621569798596</v>
       </c>
       <c r="F15">
-        <v>0.998874766888706</v>
+        <v>1.08257657834469</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041403050767366</v>
+        <v>1.050327897224128</v>
       </c>
       <c r="J15">
-        <v>1.007057730425184</v>
+        <v>1.073362018672701</v>
       </c>
       <c r="K15">
-        <v>1.0089900804578</v>
+        <v>1.079937298717124</v>
       </c>
       <c r="L15">
-        <v>0.9988772468442932</v>
+        <v>1.065080874756758</v>
       </c>
       <c r="M15">
-        <v>1.013745888888445</v>
+        <v>1.085964182875097</v>
       </c>
       <c r="N15">
-        <v>1.008487867913524</v>
+        <v>1.07488631585556</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9846465163790162</v>
+        <v>1.06820385147614</v>
       </c>
       <c r="D16">
-        <v>1.001340275693754</v>
+        <v>1.077648678500345</v>
       </c>
       <c r="E16">
-        <v>0.9904847894193776</v>
+        <v>1.062642778422314</v>
       </c>
       <c r="F16">
-        <v>1.006304972287754</v>
+        <v>1.083720698756668</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044338650131583</v>
+        <v>1.050669738108289</v>
       </c>
       <c r="J16">
-        <v>1.013404034887782</v>
+        <v>1.074306797033584</v>
       </c>
       <c r="K16">
-        <v>1.015648766415416</v>
+        <v>1.080944054381472</v>
       </c>
       <c r="L16">
-        <v>1.004990805807944</v>
+        <v>1.065987954974569</v>
       </c>
       <c r="M16">
-        <v>1.020524968015218</v>
+        <v>1.086996352611633</v>
       </c>
       <c r="N16">
-        <v>1.01484318485639</v>
+        <v>1.075832435910084</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9893883644281917</v>
+        <v>1.068929609499791</v>
       </c>
       <c r="D17">
-        <v>1.005789252592007</v>
+        <v>1.078349540808471</v>
       </c>
       <c r="E17">
-        <v>0.9946017799095853</v>
+        <v>1.063281966321716</v>
       </c>
       <c r="F17">
-        <v>1.010825994289992</v>
+        <v>1.084437129674088</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046117926043141</v>
+        <v>1.050883048766964</v>
       </c>
       <c r="J17">
-        <v>1.017260529712421</v>
+        <v>1.074897959327541</v>
       </c>
       <c r="K17">
-        <v>1.019696530988657</v>
+        <v>1.081574144630133</v>
       </c>
       <c r="L17">
-        <v>1.008705126175826</v>
+        <v>1.06655540651707</v>
       </c>
       <c r="M17">
-        <v>1.024646830409869</v>
+        <v>1.087642423685485</v>
       </c>
       <c r="N17">
-        <v>1.018705156346026</v>
+        <v>1.076424437722305</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9921033564100872</v>
+        <v>1.069352433009192</v>
       </c>
       <c r="D18">
-        <v>1.008337695874117</v>
+        <v>1.078757886356447</v>
       </c>
       <c r="E18">
-        <v>0.9969595652293168</v>
+        <v>1.063654299663103</v>
       </c>
       <c r="F18">
-        <v>1.013415982762662</v>
+        <v>1.084854569742944</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047134727963659</v>
+        <v>1.051007069249086</v>
       </c>
       <c r="J18">
-        <v>1.019468044993396</v>
+        <v>1.075242249916445</v>
       </c>
       <c r="K18">
-        <v>1.022014045255301</v>
+        <v>1.081941159951641</v>
       </c>
       <c r="L18">
-        <v>1.010830987734735</v>
+        <v>1.066885844020135</v>
       </c>
       <c r="M18">
-        <v>1.027007088581841</v>
+        <v>1.088018774549843</v>
       </c>
       <c r="N18">
-        <v>1.020915806551906</v>
+        <v>1.076769217243336</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9930207912873787</v>
+        <v>1.069496520977566</v>
       </c>
       <c r="D19">
-        <v>1.009199037575852</v>
+        <v>1.078897045004925</v>
       </c>
       <c r="E19">
-        <v>0.9977563827527141</v>
+        <v>1.063781172506561</v>
       </c>
       <c r="F19">
-        <v>1.014291412536677</v>
+        <v>1.084996831702588</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047477986628899</v>
+        <v>1.051049289419228</v>
       </c>
       <c r="J19">
-        <v>1.020213896506641</v>
+        <v>1.075359555746102</v>
       </c>
       <c r="K19">
-        <v>1.022797148644493</v>
+        <v>1.082066217525953</v>
       </c>
       <c r="L19">
-        <v>1.011549204613349</v>
+        <v>1.066998422398927</v>
       </c>
       <c r="M19">
-        <v>1.027804688968025</v>
+        <v>1.088147017716173</v>
       </c>
       <c r="N19">
-        <v>1.02166271725985</v>
+        <v>1.076886689660727</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9888849454016938</v>
+        <v>1.068851794299097</v>
       </c>
       <c r="D20">
-        <v>1.005316806078992</v>
+        <v>1.078274392192586</v>
       </c>
       <c r="E20">
-        <v>0.9941646386683252</v>
+        <v>1.063213438767849</v>
       </c>
       <c r="F20">
-        <v>1.010345868191353</v>
+        <v>1.084360309286837</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04592923001325</v>
+        <v>1.05086020398526</v>
       </c>
       <c r="J20">
-        <v>1.016851161387281</v>
+        <v>1.074834587585619</v>
       </c>
       <c r="K20">
-        <v>1.019266805715328</v>
+        <v>1.081506594356954</v>
       </c>
       <c r="L20">
-        <v>1.008310877850362</v>
+        <v>1.066494581092889</v>
       </c>
       <c r="M20">
-        <v>1.024209205158405</v>
+        <v>1.087573157353642</v>
       </c>
       <c r="N20">
-        <v>1.018295206670909</v>
+        <v>1.076360975985241</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9748155734962681</v>
+        <v>1.066749810163001</v>
       </c>
       <c r="D21">
-        <v>0.9921246867050966</v>
+        <v>1.076244684969857</v>
       </c>
       <c r="E21">
-        <v>0.9819536916975898</v>
+        <v>1.061361827837585</v>
       </c>
       <c r="F21">
-        <v>0.996942039896058</v>
+        <v>1.082285670257304</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04063725250724</v>
+        <v>1.050240749443897</v>
       </c>
       <c r="J21">
-        <v>1.005405331712113</v>
+        <v>1.073121658816947</v>
       </c>
       <c r="K21">
-        <v>1.00725681127964</v>
+        <v>1.079681216996675</v>
       </c>
       <c r="L21">
-        <v>0.9972852169619753</v>
+        <v>1.064850067718735</v>
       </c>
       <c r="M21">
-        <v>1.011981578789966</v>
+        <v>1.085701659999712</v>
       </c>
       <c r="N21">
-        <v>1.006833122604748</v>
+        <v>1.074645614661241</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9654276993081117</v>
+        <v>1.065423555441909</v>
       </c>
       <c r="D22">
-        <v>0.9833349302733168</v>
+        <v>1.074964275435175</v>
       </c>
       <c r="E22">
-        <v>0.9738132644847453</v>
+        <v>1.060193054322572</v>
       </c>
       <c r="F22">
-        <v>0.9880140247306785</v>
+        <v>1.080977131739033</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037088785638776</v>
+        <v>1.049847614789612</v>
       </c>
       <c r="J22">
-        <v>0.997764042871817</v>
+        <v>1.072039815368257</v>
       </c>
       <c r="K22">
-        <v>0.999243915639131</v>
+        <v>1.078528835825395</v>
       </c>
       <c r="L22">
-        <v>0.9899219685177677</v>
+        <v>1.063811033538227</v>
       </c>
       <c r="M22">
-        <v>1.003826725215027</v>
+        <v>1.084520408123553</v>
       </c>
       <c r="N22">
-        <v>0.9991809822578303</v>
+        <v>1.073562234870766</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9704603732840346</v>
+        <v>1.06612707709099</v>
       </c>
       <c r="D23">
-        <v>0.9880456724405757</v>
+        <v>1.075643455017329</v>
       </c>
       <c r="E23">
-        <v>0.9781764045907524</v>
+        <v>1.060813085428577</v>
       </c>
       <c r="F23">
-        <v>0.9927985949756105</v>
+        <v>1.081671211577751</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038992612056127</v>
+        <v>1.050056372439718</v>
       </c>
       <c r="J23">
-        <v>1.001860702256132</v>
+        <v>1.072613787950666</v>
       </c>
       <c r="K23">
-        <v>1.003539325784438</v>
+        <v>1.079140186587963</v>
       </c>
       <c r="L23">
-        <v>0.9938697871212131</v>
+        <v>1.064362331611017</v>
       </c>
       <c r="M23">
-        <v>1.008197921394009</v>
+        <v>1.085147051833085</v>
       </c>
       <c r="N23">
-        <v>1.003283459368365</v>
+        <v>1.074137022560077</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9891125750630905</v>
+        <v>1.068886957179692</v>
       </c>
       <c r="D24">
-        <v>1.005530427456297</v>
+        <v>1.078308350024611</v>
       </c>
       <c r="E24">
-        <v>0.9943622979481096</v>
+        <v>1.063244404946123</v>
       </c>
       <c r="F24">
-        <v>1.010562961109747</v>
+        <v>1.084395022478318</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046014558255963</v>
+        <v>1.050870527794626</v>
       </c>
       <c r="J24">
-        <v>1.017036266143683</v>
+        <v>1.074863224167834</v>
       </c>
       <c r="K24">
-        <v>1.019461113709306</v>
+        <v>1.081537118979742</v>
       </c>
       <c r="L24">
-        <v>1.008489146616379</v>
+        <v>1.066522067174793</v>
       </c>
       <c r="M24">
-        <v>1.024407084275163</v>
+        <v>1.087604457345609</v>
       </c>
       <c r="N24">
-        <v>1.018480574297298</v>
+        <v>1.076389653234687</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.008786038497489</v>
+        <v>1.0720701543169</v>
       </c>
       <c r="D25">
-        <v>1.024014851063709</v>
+        <v>1.081383014450154</v>
       </c>
       <c r="E25">
-        <v>1.011455021735142</v>
+        <v>1.066046501521448</v>
       </c>
       <c r="F25">
-        <v>1.029353368926222</v>
+        <v>1.087538590190914</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053347504932048</v>
+        <v>1.051799645340678</v>
       </c>
       <c r="J25">
-        <v>1.033021292552572</v>
+        <v>1.077453065700202</v>
       </c>
       <c r="K25">
-        <v>1.036251464348825</v>
+        <v>1.084298858483812</v>
       </c>
       <c r="L25">
-        <v>1.023878078213617</v>
+        <v>1.069006913159649</v>
       </c>
       <c r="M25">
-        <v>1.041512481182793</v>
+        <v>1.090436930055234</v>
       </c>
       <c r="N25">
-        <v>1.034488301277195</v>
+        <v>1.07898317263909</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_234/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_234/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.074594173660594</v>
+        <v>1.023217752791752</v>
       </c>
       <c r="D2">
-        <v>1.083821771554869</v>
+        <v>1.037600938365284</v>
       </c>
       <c r="E2">
-        <v>1.068266598740452</v>
+        <v>1.024002651447566</v>
       </c>
       <c r="F2">
-        <v>1.090032741912005</v>
+        <v>1.043171972682407</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052528360026868</v>
+        <v>1.058664261532738</v>
       </c>
       <c r="J2">
-        <v>1.079502870546629</v>
+        <v>1.04472552759345</v>
       </c>
       <c r="K2">
-        <v>1.086486391214367</v>
+        <v>1.048560154767981</v>
       </c>
       <c r="L2">
-        <v>1.070972240506091</v>
+        <v>1.035137420156256</v>
       </c>
       <c r="M2">
-        <v>1.092681334920577</v>
+        <v>1.054060915923799</v>
       </c>
       <c r="N2">
-        <v>1.081035888443515</v>
+        <v>1.046209157674325</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.0764186059026</v>
+        <v>1.033090681885398</v>
       </c>
       <c r="D3">
-        <v>1.085585021524453</v>
+        <v>1.046908015693582</v>
       </c>
       <c r="E3">
-        <v>1.069870332669996</v>
+        <v>1.032589105789148</v>
       </c>
       <c r="F3">
-        <v>1.091836470220521</v>
+        <v>1.05264247911332</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053050449901971</v>
+        <v>1.062263917444315</v>
       </c>
       <c r="J3">
-        <v>1.080982358630088</v>
+        <v>1.052718181949748</v>
       </c>
       <c r="K3">
-        <v>1.088066257018206</v>
+        <v>1.0569739192415</v>
       </c>
       <c r="L3">
-        <v>1.072389962631716</v>
+        <v>1.042821315319179</v>
       </c>
       <c r="M3">
-        <v>1.0943027620822</v>
+        <v>1.062643343753741</v>
       </c>
       <c r="N3">
-        <v>1.082517477569752</v>
+        <v>1.054213162516579</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.077595459414612</v>
+        <v>1.039232186651134</v>
       </c>
       <c r="D4">
-        <v>1.08672261200628</v>
+        <v>1.052702650026237</v>
       </c>
       <c r="E4">
-        <v>1.070904352765943</v>
+        <v>1.037930745881573</v>
       </c>
       <c r="F4">
-        <v>1.09300037281643</v>
+        <v>1.058540713562644</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05338507294997</v>
+        <v>1.064485257597074</v>
       </c>
       <c r="J4">
-        <v>1.081935700019168</v>
+        <v>1.057682918212735</v>
       </c>
       <c r="K4">
-        <v>1.089084727623327</v>
+        <v>1.062204037253915</v>
       </c>
       <c r="L4">
-        <v>1.073303138594765</v>
+        <v>1.047591958598877</v>
       </c>
       <c r="M4">
-        <v>1.095348250238596</v>
+        <v>1.067980439183126</v>
       </c>
       <c r="N4">
-        <v>1.083472172812955</v>
+        <v>1.059184949274524</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.078089347320117</v>
+        <v>1.041759277353057</v>
       </c>
       <c r="D5">
-        <v>1.087200070359879</v>
+        <v>1.055088145479834</v>
       </c>
       <c r="E5">
-        <v>1.071338184822814</v>
+        <v>1.040128708308101</v>
       </c>
       <c r="F5">
-        <v>1.093488921633529</v>
+        <v>1.060969293338007</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053524987826899</v>
+        <v>1.065394941132293</v>
       </c>
       <c r="J5">
-        <v>1.082335546001151</v>
+        <v>1.059724016993674</v>
       </c>
       <c r="K5">
-        <v>1.089511997214589</v>
+        <v>1.064355147210255</v>
       </c>
       <c r="L5">
-        <v>1.073686051365006</v>
+        <v>1.049552707261842</v>
       </c>
       <c r="M5">
-        <v>1.095786907961657</v>
+        <v>1.070176050597598</v>
       </c>
       <c r="N5">
-        <v>1.083872586622095</v>
+        <v>1.061228946649849</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.078172223306673</v>
+        <v>1.042180490061153</v>
       </c>
       <c r="D6">
-        <v>1.087280192204829</v>
+        <v>1.055485821406598</v>
       </c>
       <c r="E6">
-        <v>1.071410976594119</v>
+        <v>1.040495059545859</v>
       </c>
       <c r="F6">
-        <v>1.093570907311991</v>
+        <v>1.061374177028407</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053548435729754</v>
+        <v>1.065546308510318</v>
       </c>
       <c r="J6">
-        <v>1.082402627303049</v>
+        <v>1.060064118654116</v>
       </c>
       <c r="K6">
-        <v>1.089583685618147</v>
+        <v>1.064713632955414</v>
       </c>
       <c r="L6">
-        <v>1.073750286708385</v>
+        <v>1.04987938775092</v>
       </c>
       <c r="M6">
-        <v>1.095860510242871</v>
+        <v>1.070541981882993</v>
       </c>
       <c r="N6">
-        <v>1.083939763187136</v>
+        <v>1.061569531293659</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.077602062127818</v>
+        <v>1.039266163737488</v>
       </c>
       <c r="D7">
-        <v>1.08672899488782</v>
+        <v>1.052734718965805</v>
       </c>
       <c r="E7">
-        <v>1.070910153047109</v>
+        <v>1.03796029792046</v>
       </c>
       <c r="F7">
-        <v>1.093006903775726</v>
+        <v>1.058573359984199</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053386945479504</v>
+        <v>1.06449750574403</v>
       </c>
       <c r="J7">
-        <v>1.081941046448107</v>
+        <v>1.057710368204612</v>
       </c>
       <c r="K7">
-        <v>1.089090440316909</v>
+        <v>1.062232963151651</v>
       </c>
       <c r="L7">
-        <v>1.07330825894873</v>
+        <v>1.047618330194156</v>
       </c>
       <c r="M7">
-        <v>1.095354114983074</v>
+        <v>1.068009961509671</v>
       </c>
       <c r="N7">
-        <v>1.083477526834435</v>
+        <v>1.059212438248537</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.075211521598723</v>
+        <v>1.026608252222747</v>
       </c>
       <c r="D8">
-        <v>1.084418374302491</v>
+        <v>1.040795967074942</v>
       </c>
       <c r="E8">
-        <v>1.068809364847135</v>
+        <v>1.026951210936037</v>
       </c>
       <c r="F8">
-        <v>1.090642999758643</v>
+        <v>1.046422707070244</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052705470027116</v>
+        <v>1.059904180138705</v>
       </c>
       <c r="J8">
-        <v>1.080003705302913</v>
+        <v>1.047471786832988</v>
       </c>
       <c r="K8">
-        <v>1.087021112600376</v>
+        <v>1.051450294307921</v>
       </c>
       <c r="L8">
-        <v>1.071452242256818</v>
+        <v>1.037778078563754</v>
       </c>
       <c r="M8">
-        <v>1.093230076447098</v>
+        <v>1.057008531818495</v>
       </c>
       <c r="N8">
-        <v>1.0815374344426</v>
+        <v>1.048959316916984</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.070970081968769</v>
+        <v>1.002186507903259</v>
       </c>
       <c r="D9">
-        <v>1.080320324340813</v>
+        <v>1.017809460113601</v>
       </c>
       <c r="E9">
-        <v>1.065078401930835</v>
+        <v>1.005719302921686</v>
       </c>
       <c r="F9">
-        <v>1.086451969643309</v>
+        <v>1.023043987577652</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051479795089455</v>
+        <v>1.050897474912158</v>
       </c>
       <c r="J9">
-        <v>1.076558627918822</v>
+        <v>1.027662290504865</v>
       </c>
       <c r="K9">
-        <v>1.083344793120999</v>
+        <v>1.030620051529003</v>
       </c>
       <c r="L9">
-        <v>1.068148951442094</v>
+        <v>1.018720264975854</v>
       </c>
       <c r="M9">
-        <v>1.089458297690197</v>
+        <v>1.035773937255701</v>
       </c>
       <c r="N9">
-        <v>1.078087464653468</v>
+        <v>1.029121688831895</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.068121765801143</v>
+        <v>0.9841035089633264</v>
       </c>
       <c r="D10">
-        <v>1.077569412177621</v>
+        <v>1.000830968372459</v>
       </c>
       <c r="E10">
-        <v>1.062570476707119</v>
+        <v>0.9900134201931774</v>
       </c>
       <c r="F10">
-        <v>1.083639674869307</v>
+        <v>1.005787455999692</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050645577641432</v>
+        <v>1.044134634559852</v>
       </c>
       <c r="J10">
-        <v>1.074239918608657</v>
+        <v>1.01296233965828</v>
       </c>
       <c r="K10">
-        <v>1.080872779237148</v>
+        <v>1.015185235619729</v>
       </c>
       <c r="L10">
-        <v>1.065923752983362</v>
+        <v>1.00456535722455</v>
       </c>
       <c r="M10">
-        <v>1.086923273397528</v>
+        <v>1.020052996500499</v>
       </c>
       <c r="N10">
-        <v>1.075765462510122</v>
+        <v>1.014400862368998</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.066883239387068</v>
+        <v>0.9757370482766579</v>
       </c>
       <c r="D11">
-        <v>1.076373512200584</v>
+        <v>0.9929880097836248</v>
       </c>
       <c r="E11">
-        <v>1.061479392702046</v>
+        <v>0.9827530610478539</v>
       </c>
       <c r="F11">
-        <v>1.082417336794687</v>
+        <v>0.9978190606455383</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050280204451295</v>
+        <v>1.040984860305066</v>
       </c>
       <c r="J11">
-        <v>1.073230453794646</v>
+        <v>1.006155227453041</v>
       </c>
       <c r="K11">
-        <v>1.079797125944207</v>
+        <v>1.008043384649663</v>
       </c>
       <c r="L11">
-        <v>1.064954540659411</v>
+        <v>0.9980077272972363</v>
       </c>
       <c r="M11">
-        <v>1.085820483214738</v>
+        <v>1.012782223822513</v>
       </c>
       <c r="N11">
-        <v>1.074754564140288</v>
+        <v>1.007584083283642</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.06642239317299</v>
+        <v>0.9725370603549797</v>
       </c>
       <c r="D12">
-        <v>1.07592856864475</v>
+        <v>0.9899903889707112</v>
       </c>
       <c r="E12">
-        <v>1.061073323574622</v>
+        <v>0.9799773583426591</v>
       </c>
       <c r="F12">
-        <v>1.081962593955228</v>
+        <v>0.9947739706108243</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.050143856857571</v>
+        <v>1.039777174439849</v>
       </c>
       <c r="J12">
-        <v>1.07285465578814</v>
+        <v>1.003550957908202</v>
       </c>
       <c r="K12">
-        <v>1.079396770860588</v>
+        <v>1.005311903125206</v>
       </c>
       <c r="L12">
-        <v>1.064593658565384</v>
+        <v>0.9954984838835598</v>
       </c>
       <c r="M12">
-        <v>1.085410070206688</v>
+        <v>1.010001982689766</v>
       </c>
       <c r="N12">
-        <v>1.074378232457508</v>
+        <v>1.004976115377336</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.066521282932977</v>
+        <v>0.9732278618891451</v>
       </c>
       <c r="D13">
-        <v>1.076024044066763</v>
+        <v>0.9906374031116273</v>
       </c>
       <c r="E13">
-        <v>1.061160462947627</v>
+        <v>0.9805765064176732</v>
       </c>
       <c r="F13">
-        <v>1.082060170409294</v>
+        <v>0.9954312088954667</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.050173132595709</v>
+        <v>1.040038015939945</v>
       </c>
       <c r="J13">
-        <v>1.07293530396178</v>
+        <v>1.004113186042149</v>
       </c>
       <c r="K13">
-        <v>1.079482685344054</v>
+        <v>1.005901555949783</v>
       </c>
       <c r="L13">
-        <v>1.064671108836102</v>
+        <v>0.9960402157445351</v>
       </c>
       <c r="M13">
-        <v>1.085498141159633</v>
+        <v>1.010602136233212</v>
       </c>
       <c r="N13">
-        <v>1.074458995160806</v>
+        <v>1.005539141939721</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.06684516219791</v>
+        <v>0.975474496236309</v>
       </c>
       <c r="D14">
-        <v>1.076336748106389</v>
+        <v>0.9927420166167291</v>
       </c>
       <c r="E14">
-        <v>1.061445843175429</v>
+        <v>0.9825252941076388</v>
       </c>
       <c r="F14">
-        <v>1.082379762261232</v>
+        <v>0.9975691623106213</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050268946850311</v>
+        <v>1.040885831218886</v>
       </c>
       <c r="J14">
-        <v>1.073199407418028</v>
+        <v>1.005941565717921</v>
       </c>
       <c r="K14">
-        <v>1.079764049099805</v>
+        <v>1.00781926874002</v>
       </c>
       <c r="L14">
-        <v>1.064924727963212</v>
+        <v>0.9978018701688915</v>
       </c>
       <c r="M14">
-        <v>1.085786574532874</v>
+        <v>1.012554095986364</v>
       </c>
       <c r="N14">
-        <v>1.074723473674255</v>
+        <v>1.007370118124351</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.067044607885473</v>
+        <v>0.9768460961835492</v>
       </c>
       <c r="D15">
-        <v>1.076529317603614</v>
+        <v>0.9940271994749343</v>
       </c>
       <c r="E15">
-        <v>1.061621569798596</v>
+        <v>0.9837152243729929</v>
       </c>
       <c r="F15">
-        <v>1.08257657834469</v>
+        <v>0.9988747668887042</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050327897224128</v>
+        <v>1.041403050767365</v>
       </c>
       <c r="J15">
-        <v>1.073362018672701</v>
+        <v>1.007057730425183</v>
       </c>
       <c r="K15">
-        <v>1.079937298717124</v>
+        <v>1.008990080457798</v>
       </c>
       <c r="L15">
-        <v>1.065080874756758</v>
+        <v>0.998877246844292</v>
       </c>
       <c r="M15">
-        <v>1.085964182875097</v>
+        <v>1.013745888888443</v>
       </c>
       <c r="N15">
-        <v>1.07488631585556</v>
+        <v>1.008487867913523</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.06820385147614</v>
+        <v>0.9846465163790181</v>
       </c>
       <c r="D16">
-        <v>1.077648678500345</v>
+        <v>1.001340275693756</v>
       </c>
       <c r="E16">
-        <v>1.062642778422314</v>
+        <v>0.9904847894193792</v>
       </c>
       <c r="F16">
-        <v>1.083720698756668</v>
+        <v>1.006304972287756</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050669738108289</v>
+        <v>1.044338650131585</v>
       </c>
       <c r="J16">
-        <v>1.074306797033584</v>
+        <v>1.013404034887784</v>
       </c>
       <c r="K16">
-        <v>1.080944054381472</v>
+        <v>1.015648766415418</v>
       </c>
       <c r="L16">
-        <v>1.065987954974569</v>
+        <v>1.004990805807945</v>
       </c>
       <c r="M16">
-        <v>1.086996352611633</v>
+        <v>1.02052496801522</v>
       </c>
       <c r="N16">
-        <v>1.075832435910084</v>
+        <v>1.014843184856392</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.068929609499791</v>
+        <v>0.9893883644281912</v>
       </c>
       <c r="D17">
-        <v>1.078349540808471</v>
+        <v>1.005789252592006</v>
       </c>
       <c r="E17">
-        <v>1.063281966321716</v>
+        <v>0.9946017799095849</v>
       </c>
       <c r="F17">
-        <v>1.084437129674088</v>
+        <v>1.010825994289992</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050883048766964</v>
+        <v>1.046117926043141</v>
       </c>
       <c r="J17">
-        <v>1.074897959327541</v>
+        <v>1.017260529712421</v>
       </c>
       <c r="K17">
-        <v>1.081574144630133</v>
+        <v>1.019696530988656</v>
       </c>
       <c r="L17">
-        <v>1.06655540651707</v>
+        <v>1.008705126175826</v>
       </c>
       <c r="M17">
-        <v>1.087642423685485</v>
+        <v>1.024646830409869</v>
       </c>
       <c r="N17">
-        <v>1.076424437722305</v>
+        <v>1.018705156346026</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.069352433009192</v>
+        <v>0.9921033564100873</v>
       </c>
       <c r="D18">
-        <v>1.078757886356447</v>
+        <v>1.008337695874116</v>
       </c>
       <c r="E18">
-        <v>1.063654299663103</v>
+        <v>0.9969595652293168</v>
       </c>
       <c r="F18">
-        <v>1.084854569742944</v>
+        <v>1.013415982762661</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051007069249086</v>
+        <v>1.047134727963659</v>
       </c>
       <c r="J18">
-        <v>1.075242249916445</v>
+        <v>1.019468044993396</v>
       </c>
       <c r="K18">
-        <v>1.081941159951641</v>
+        <v>1.022014045255301</v>
       </c>
       <c r="L18">
-        <v>1.066885844020135</v>
+        <v>1.010830987734735</v>
       </c>
       <c r="M18">
-        <v>1.088018774549843</v>
+        <v>1.027007088581841</v>
       </c>
       <c r="N18">
-        <v>1.076769217243336</v>
+        <v>1.020915806551906</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.069496520977566</v>
+        <v>0.9930207912873779</v>
       </c>
       <c r="D19">
-        <v>1.078897045004925</v>
+        <v>1.009199037575852</v>
       </c>
       <c r="E19">
-        <v>1.063781172506561</v>
+        <v>0.9977563827527133</v>
       </c>
       <c r="F19">
-        <v>1.084996831702588</v>
+        <v>1.014291412536676</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051049289419228</v>
+        <v>1.047477986628899</v>
       </c>
       <c r="J19">
-        <v>1.075359555746102</v>
+        <v>1.02021389650664</v>
       </c>
       <c r="K19">
-        <v>1.082066217525953</v>
+        <v>1.022797148644492</v>
       </c>
       <c r="L19">
-        <v>1.066998422398927</v>
+        <v>1.011549204613349</v>
       </c>
       <c r="M19">
-        <v>1.088147017716173</v>
+        <v>1.027804688968024</v>
       </c>
       <c r="N19">
-        <v>1.076886689660727</v>
+        <v>1.021662717259849</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.068851794299097</v>
+        <v>0.9888849454016926</v>
       </c>
       <c r="D20">
-        <v>1.078274392192586</v>
+        <v>1.005316806078991</v>
       </c>
       <c r="E20">
-        <v>1.063213438767849</v>
+        <v>0.9941646386683241</v>
       </c>
       <c r="F20">
-        <v>1.084360309286837</v>
+        <v>1.010345868191352</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.05086020398526</v>
+        <v>1.04592923001325</v>
       </c>
       <c r="J20">
-        <v>1.074834587585619</v>
+        <v>1.016851161387279</v>
       </c>
       <c r="K20">
-        <v>1.081506594356954</v>
+        <v>1.019266805715326</v>
       </c>
       <c r="L20">
-        <v>1.066494581092889</v>
+        <v>1.00831087785036</v>
       </c>
       <c r="M20">
-        <v>1.087573157353642</v>
+        <v>1.024209205158404</v>
       </c>
       <c r="N20">
-        <v>1.076360975985241</v>
+        <v>1.018295206670908</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.066749810163001</v>
+        <v>0.9748155734962668</v>
       </c>
       <c r="D21">
-        <v>1.076244684969857</v>
+        <v>0.9921246867050948</v>
       </c>
       <c r="E21">
-        <v>1.061361827837585</v>
+        <v>0.9819536916975886</v>
       </c>
       <c r="F21">
-        <v>1.082285670257304</v>
+        <v>0.9969420398960563</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050240749443897</v>
+        <v>1.04063725250724</v>
       </c>
       <c r="J21">
-        <v>1.073121658816947</v>
+        <v>1.005405331712112</v>
       </c>
       <c r="K21">
-        <v>1.079681216996675</v>
+        <v>1.007256811279639</v>
       </c>
       <c r="L21">
-        <v>1.064850067718735</v>
+        <v>0.9972852169619738</v>
       </c>
       <c r="M21">
-        <v>1.085701659999712</v>
+        <v>1.011981578789964</v>
       </c>
       <c r="N21">
-        <v>1.074645614661241</v>
+        <v>1.006833122604747</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.065423555441909</v>
+        <v>0.9654276993081103</v>
       </c>
       <c r="D22">
-        <v>1.074964275435175</v>
+        <v>0.9833349302733152</v>
       </c>
       <c r="E22">
-        <v>1.060193054322572</v>
+        <v>0.9738132644847441</v>
       </c>
       <c r="F22">
-        <v>1.080977131739033</v>
+        <v>0.9880140247306772</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049847614789612</v>
+        <v>1.037088785638776</v>
       </c>
       <c r="J22">
-        <v>1.072039815368257</v>
+        <v>0.9977640428718157</v>
       </c>
       <c r="K22">
-        <v>1.078528835825395</v>
+        <v>0.9992439156391295</v>
       </c>
       <c r="L22">
-        <v>1.063811033538227</v>
+        <v>0.9899219685177666</v>
       </c>
       <c r="M22">
-        <v>1.084520408123553</v>
+        <v>1.003826725215026</v>
       </c>
       <c r="N22">
-        <v>1.073562234870766</v>
+        <v>0.999180982257829</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.06612707709099</v>
+        <v>0.9704603732840293</v>
       </c>
       <c r="D23">
-        <v>1.075643455017329</v>
+        <v>0.9880456724405701</v>
       </c>
       <c r="E23">
-        <v>1.060813085428577</v>
+        <v>0.9781764045907474</v>
       </c>
       <c r="F23">
-        <v>1.081671211577751</v>
+        <v>0.9927985949756049</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.050056372439718</v>
+        <v>1.038992612056124</v>
       </c>
       <c r="J23">
-        <v>1.072613787950666</v>
+        <v>1.001860702256127</v>
       </c>
       <c r="K23">
-        <v>1.079140186587963</v>
+        <v>1.003539325784433</v>
       </c>
       <c r="L23">
-        <v>1.064362331611017</v>
+        <v>0.9938697871212083</v>
       </c>
       <c r="M23">
-        <v>1.085147051833085</v>
+        <v>1.008197921394004</v>
       </c>
       <c r="N23">
-        <v>1.074137022560077</v>
+        <v>1.003283459368359</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.068886957179692</v>
+        <v>0.9891125750630908</v>
       </c>
       <c r="D24">
-        <v>1.078308350024611</v>
+        <v>1.005530427456297</v>
       </c>
       <c r="E24">
-        <v>1.063244404946123</v>
+        <v>0.9943622979481098</v>
       </c>
       <c r="F24">
-        <v>1.084395022478318</v>
+        <v>1.010562961109747</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050870527794626</v>
+        <v>1.046014558255963</v>
       </c>
       <c r="J24">
-        <v>1.074863224167834</v>
+        <v>1.017036266143683</v>
       </c>
       <c r="K24">
-        <v>1.081537118979742</v>
+        <v>1.019461113709307</v>
       </c>
       <c r="L24">
-        <v>1.066522067174793</v>
+        <v>1.008489146616379</v>
       </c>
       <c r="M24">
-        <v>1.087604457345609</v>
+        <v>1.024407084275163</v>
       </c>
       <c r="N24">
-        <v>1.076389653234687</v>
+        <v>1.018480574297298</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.0720701543169</v>
+        <v>1.008786038497488</v>
       </c>
       <c r="D25">
-        <v>1.081383014450154</v>
+        <v>1.024014851063707</v>
       </c>
       <c r="E25">
-        <v>1.066046501521448</v>
+        <v>1.011455021735141</v>
       </c>
       <c r="F25">
-        <v>1.087538590190914</v>
+        <v>1.029353368926221</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051799645340678</v>
+        <v>1.053347504932047</v>
       </c>
       <c r="J25">
-        <v>1.077453065700202</v>
+        <v>1.03302129255257</v>
       </c>
       <c r="K25">
-        <v>1.084298858483812</v>
+        <v>1.036251464348823</v>
       </c>
       <c r="L25">
-        <v>1.069006913159649</v>
+        <v>1.023878078213615</v>
       </c>
       <c r="M25">
-        <v>1.090436930055234</v>
+        <v>1.041512481182791</v>
       </c>
       <c r="N25">
-        <v>1.07898317263909</v>
+        <v>1.034488301277193</v>
       </c>
     </row>
   </sheetData>
